--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -513,41 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -753,16 +753,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -801,16 +801,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -849,24 +849,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -940,21 +940,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12">
@@ -988,21 +988,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1020,14 +1020,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="13">
@@ -1036,29 +1036,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1068,14 +1068,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45292</v>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
         <v>1000</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45293</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" t="n">
         <v>1498</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,43 +1388,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,11 +1436,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1456,11 +1454,11 @@
         <v>50</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1474,7 +1472,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1488,11 +1486,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1506,11 +1504,11 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1524,7 +1522,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1538,36 +1536,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>42</v>
-      </c>
-      <c r="L23" t="n">
-        <v>985</v>
+        <v>50</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L24" t="n">
-        <v>1000</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,24 +1796,24 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L28" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -1878,24 +1878,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +1980,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2135,15 +2135,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2188,16 +2188,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2219,24 +2219,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2411,19 +2411,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2452,14 +2452,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4">
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2560,14 +2560,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2579,31 +2579,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,18 +522,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>985</v>
@@ -561,16 +561,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,14 +588,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -636,14 +636,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -657,24 +657,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -684,14 +684,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -748,21 +748,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="8">
@@ -796,21 +796,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="9">
@@ -844,29 +844,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="10">
@@ -897,24 +897,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -924,14 +924,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +940,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,24 +1106,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45292</v>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
         <v>1000</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,21 +1202,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,21 +1252,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,21 +1302,21 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,29 +1352,29 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,41 +1388,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1000</v>
+        <v>50</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1454,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1490,7 +1492,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1504,7 +1506,7 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,21 +1542,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1562,12 +1564,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
-        <v>1498</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,36 +1784,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>60</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>75</v>
-      </c>
       <c r="H28" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="L28" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
@@ -1887,15 +1887,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1971,24 +1971,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2126,24 +2126,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2286,11 +2286,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2317,11 +2317,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2423,7 +2423,7 @@
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2435,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2471,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
@@ -2524,14 +2524,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2543,31 +2543,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2579,31 +2579,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/module5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_6849833A8DDEC2B94677BC8A418D983871759C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0076F865-F321-4EE1-8B39-61F98D18A9E8}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_0839C3278D4E43A42634A2E3ED4C9EA8B9F41AC5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD5BAAC-B48F-41C2-B94B-2B4D51901E0F}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="-12960" windowWidth="20520" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeploymentPlan" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -55,16 +55,22 @@
     <t>orig_location</t>
   </si>
   <si>
+    <t>horizon_days</t>
+  </si>
+  <si>
     <t>deployed_qty</t>
   </si>
   <si>
     <t>quota</t>
   </si>
   <si>
-    <t>MAT_A</t>
+    <t>leadtime_days</t>
   </si>
   <si>
-    <t>DC_002</t>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>DC_001</t>
   </si>
   <si>
     <t>forecast</t>
@@ -73,10 +79,10 @@
     <t>safety</t>
   </si>
   <si>
-    <t>MAT_B</t>
+    <t>DC_002</t>
   </si>
   <si>
-    <t>DC_001</t>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -126,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +188,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,21 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:I33"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,405 +538,471 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1498</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1498</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1498</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1498</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1498</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1498</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1498</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1498</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
         <v>985</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
+      <c r="G11">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>43</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>1498</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>43</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45292</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>43</v>
@@ -946,378 +1014,438 @@
         <v>45292</v>
       </c>
       <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1498</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1498</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1498</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1498</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>1498</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>985</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>985</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>985</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>985</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>985</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>43</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>80</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>29</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>28</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>28</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>36</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>45292</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
       <c r="G22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1326,33 +1454,39 @@
         <v>45292</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>985</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45292</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1364,33 +1498,39 @@
         <v>45292</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
         <v>83</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45293</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -1402,33 +1542,39 @@
         <v>45293</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
         <v>41</v>
       </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45294</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>50</v>
@@ -1440,33 +1586,39 @@
         <v>45294</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
         <v>41</v>
       </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45295</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>50</v>
@@ -1478,33 +1630,39 @@
         <v>45295</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
         <v>41</v>
       </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45296</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>50</v>
@@ -1516,33 +1674,39 @@
         <v>45296</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
         <v>41</v>
       </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45297</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G28">
         <v>50</v>
@@ -1554,36 +1718,42 @@
         <v>45297</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45292</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1592,33 +1762,39 @@
         <v>45292</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1498</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45293</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -1630,33 +1806,39 @@
         <v>45293</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30">
         <v>41</v>
       </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45294</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>50</v>
@@ -1668,33 +1850,39 @@
         <v>45294</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
         <v>41</v>
       </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45295</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1706,33 +1894,39 @@
         <v>45295</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
         <v>41</v>
       </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45296</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <v>50</v>
@@ -1744,33 +1938,39 @@
         <v>45296</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
         <v>41</v>
       </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45297</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -1782,36 +1982,42 @@
         <v>45297</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45292</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1820,33 +2026,39 @@
         <v>45292</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L35">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>985</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45292</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>80</v>
@@ -1858,33 +2070,39 @@
         <v>45292</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
         <v>80</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45293</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G37">
         <v>40</v>
@@ -1896,33 +2114,39 @@
         <v>45293</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
         <v>40</v>
       </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45294</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G38">
         <v>40</v>
@@ -1934,33 +2158,39 @@
         <v>45294</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
         <v>40</v>
       </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45295</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39">
         <v>40</v>
@@ -1972,33 +2202,39 @@
         <v>45295</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
         <v>40</v>
       </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45296</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>40</v>
@@ -2010,33 +2246,39 @@
         <v>45296</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
         <v>40</v>
       </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45297</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -2048,33 +2290,39 @@
         <v>45297</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
         <v>40</v>
       </c>
-      <c r="L41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45298</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G42">
         <v>40</v>
@@ -2086,33 +2334,39 @@
         <v>45298</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
         <v>40</v>
       </c>
-      <c r="L42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45292</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <v>60</v>
@@ -2124,20 +2378,23 @@
         <v>45292</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
         <v>60</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1498</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2166,10 +2423,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2177,22 +2434,22 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,22 +2457,22 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2223,22 +2480,22 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,22 +2503,22 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2269,22 +2526,22 @@
         <v>45292</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2292,22 +2549,22 @@
         <v>45292</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2315,22 +2572,22 @@
         <v>45292</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2338,22 +2595,22 @@
         <v>45292</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
       <c r="F9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,22 +2618,22 @@
         <v>45292</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,22 +2641,22 @@
         <v>45292</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2407,22 +2664,22 @@
         <v>45292</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2430,22 +2687,22 @@
         <v>45292</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2453,22 +2710,22 @@
         <v>45292</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,22 +2733,22 @@
         <v>45292</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2499,22 +2756,22 @@
         <v>45292</v>
       </c>
       <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
       <c r="F16">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2522,22 +2779,22 @@
         <v>45292</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,22 +2802,22 @@
         <v>45292</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2568,22 +2825,22 @@
         <v>45292</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2591,22 +2848,22 @@
         <v>45292</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2614,22 +2871,22 @@
         <v>45292</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2637,22 +2894,22 @@
         <v>45292</v>
       </c>
       <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
       <c r="F22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2660,22 +2917,22 @@
         <v>45292</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2683,22 +2940,22 @@
         <v>45293</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2706,22 +2963,22 @@
         <v>45294</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2729,22 +2986,22 @@
         <v>45295</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2752,22 +3009,22 @@
         <v>45296</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2775,22 +3032,22 @@
         <v>45297</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2798,22 +3055,22 @@
         <v>45292</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2821,22 +3078,22 @@
         <v>45293</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2844,22 +3101,22 @@
         <v>45294</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2867,22 +3124,22 @@
         <v>45295</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2890,22 +3147,22 @@
         <v>45296</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2913,22 +3170,22 @@
         <v>45297</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2936,22 +3193,22 @@
         <v>45292</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2972,45 +3229,45 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>45292</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3022,18 +3279,18 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -3042,7 +3299,7 @@
         <v>45292</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3054,21 +3311,21 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>45292</v>
@@ -3097,10 +3354,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>45292</v>
@@ -3129,16 +3386,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>45292</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3150,27 +3407,27 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>45292</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3182,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,21 +513,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +564,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -615,21 +615,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -666,21 +666,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -717,21 +717,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -768,29 +768,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -819,29 +819,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -926,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12">
@@ -1028,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="13">
@@ -1079,16 +1079,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14">
@@ -1130,16 +1130,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15">
@@ -1181,16 +1181,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="16">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45292</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>1498</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1538,44 +1538,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="23">
@@ -1584,68 +1584,68 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1000</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1653,206 +1653,198 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>41</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>41</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>41</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>41</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1861,21 +1853,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1883,15 +1875,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>41</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="29">
@@ -1910,39 +1900,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M29" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -1961,11 +1951,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1983,7 +1973,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2014,11 +2004,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2036,7 +2026,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2067,11 +2057,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2089,7 +2079,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2120,11 +2110,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2142,7 +2132,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2173,11 +2163,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2195,7 +2185,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2226,11 +2216,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2238,7 +2228,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2248,7 +2238,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2258,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2277,48 +2267,50 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>80</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,50 +2320,48 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>40</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2385,7 +2375,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2393,13 +2383,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2407,10 +2397,10 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2420,11 +2410,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2438,7 +2428,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2446,13 +2436,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2460,10 +2450,10 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2473,11 +2463,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2491,7 +2481,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2499,13 +2489,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2513,10 +2503,10 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2526,11 +2516,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2544,7 +2534,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2552,13 +2542,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2566,10 +2556,10 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2579,11 +2569,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2597,7 +2587,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2605,13 +2595,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2619,10 +2609,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2636,48 +2626,676 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>80</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>46</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>PLANT_001</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>80</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>80</v>
+      </c>
+      <c r="H46" t="n">
+        <v>80</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>80</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>29</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>40</v>
+      </c>
+      <c r="H47" t="n">
+        <v>40</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>25</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>40</v>
+      </c>
+      <c r="H48" t="n">
+        <v>40</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>40</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>29</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>40</v>
+      </c>
+      <c r="H49" t="n">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>7</v>
+      </c>
+      <c r="L49" t="n">
+        <v>40</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>28</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>40</v>
+      </c>
+      <c r="H50" t="n">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>7</v>
+      </c>
+      <c r="L50" t="n">
+        <v>40</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>28</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>40</v>
+      </c>
+      <c r="H51" t="n">
+        <v>40</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>7</v>
+      </c>
+      <c r="L51" t="n">
+        <v>40</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>28</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>40</v>
+      </c>
+      <c r="H52" t="n">
+        <v>40</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>40</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>50</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G53" t="n">
         <v>60</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H53" t="n">
         <v>60</v>
       </c>
-      <c r="I43" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="I53" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L53" t="n">
         <v>60</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M53" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>40</v>
+      </c>
+      <c r="H54" t="n">
+        <v>40</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>40</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>32</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>40</v>
+      </c>
+      <c r="H55" t="n">
+        <v>40</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" t="n">
+        <v>40</v>
+      </c>
+      <c r="M55" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -2692,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,16 +3361,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +3378,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2774,16 +3392,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +3409,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2805,16 +3423,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +3440,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2836,16 +3454,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +3471,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2867,16 +3485,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +3502,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2898,24 +3516,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,24 +3547,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +3578,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2991,16 +3609,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3008,7 +3626,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3022,16 +3640,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3039,7 +3657,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3053,16 +3671,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +3688,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3084,16 +3702,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3101,7 +3719,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +3733,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +3750,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,16 +3764,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3163,7 +3781,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,15 +3804,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,15 +3835,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,7 +3866,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3256,7 +3874,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,7 +3897,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3287,7 +3905,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +3928,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +3936,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,15 +3959,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3363,24 +3981,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3394,24 +4012,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3421,16 +4039,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -3438,11 +4056,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3452,28 +4070,28 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3483,28 +4101,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3514,28 +4132,28 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3545,11 +4163,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3558,15 +4176,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3585,19 +4203,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3616,11 +4234,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3647,11 +4265,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3678,11 +4296,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3709,11 +4327,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3740,11 +4358,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3771,21 +4389,331 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>75</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>39</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>43</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>35</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>9</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>9</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>43</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>80</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F43" t="n">
         <v>100</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>46</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -3865,19 +4793,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3895,25 +4823,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3925,31 +4853,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3961,31 +4889,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3997,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4009,19 +4937,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4039,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4057,7 +4985,7 @@
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4069,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="8">
@@ -824,44 +824,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1088,15 +1088,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1232,24 +1232,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17">
@@ -1283,44 +1283,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="18">
@@ -1329,21 +1329,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19">
@@ -1380,21 +1380,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
@@ -1431,29 +1431,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21">
@@ -1482,29 +1482,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1589,44 +1589,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M23" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24">
@@ -1635,63 +1635,63 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>1498</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1700,21 +1700,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1722,27 +1722,29 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1498</v>
+        <v>50</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1751,49 +1753,51 @@
         </is>
       </c>
       <c r="E26" t="n">
+        <v>43</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>4</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1498</v>
+        <v>50</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1802,21 +1806,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1824,64 +1828,68 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1498</v>
+        <v>50</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>15</v>
-      </c>
-      <c r="M28" t="n">
-        <v>985</v>
+        <v>50</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1900,44 +1908,44 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1000</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1951,36 +1959,36 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>50</v>
       </c>
       <c r="H30" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1990,7 +1998,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2004,46 +2012,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>50</v>
       </c>
       <c r="H31" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>41</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2061,7 +2067,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2072,10 +2078,10 @@
         <v>50</v>
       </c>
       <c r="H32" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2083,10 +2089,10 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2125,10 +2131,10 @@
         <v>50</v>
       </c>
       <c r="H33" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2136,10 +2142,10 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2149,7 +2155,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2167,7 +2173,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2178,10 +2184,10 @@
         <v>50</v>
       </c>
       <c r="H34" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2189,10 +2195,10 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2220,21 +2226,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2242,18 +2248,20 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>985</v>
+        <v>50</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2271,21 +2279,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2293,20 +2301,18 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M36" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2324,11 +2330,11 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2338,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2346,18 +2352,20 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
-        <v>985</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2371,50 +2379,48 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>41</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2424,50 +2430,48 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H39" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>41</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2481,7 +2485,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2489,13 +2493,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2503,10 +2507,10 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2516,11 +2520,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2534,7 +2538,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2542,13 +2546,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2556,10 +2560,10 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2569,11 +2573,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2587,7 +2591,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2595,13 +2599,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2609,10 +2613,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2622,11 +2626,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2640,21 +2644,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2662,22 +2666,24 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1498</v>
+        <v>40</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2691,21 +2697,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2713,24 +2719,22 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2744,21 +2748,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2766,13 +2770,15 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1498</v>
+        <v>40</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2791,511 +2797,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H46" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M46" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>29</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>40</v>
-      </c>
-      <c r="H47" t="n">
-        <v>40</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>7</v>
-      </c>
-      <c r="L47" t="n">
-        <v>40</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>25</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>40</v>
-      </c>
-      <c r="H48" t="n">
-        <v>40</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>7</v>
-      </c>
-      <c r="L48" t="n">
-        <v>40</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>29</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>40</v>
-      </c>
-      <c r="H49" t="n">
-        <v>40</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>7</v>
-      </c>
-      <c r="L49" t="n">
-        <v>40</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>28</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>40</v>
-      </c>
-      <c r="H50" t="n">
-        <v>40</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>7</v>
-      </c>
-      <c r="L50" t="n">
-        <v>40</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>28</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>40</v>
-      </c>
-      <c r="H51" t="n">
-        <v>40</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>7</v>
-      </c>
-      <c r="L51" t="n">
-        <v>40</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>28</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>40</v>
-      </c>
-      <c r="H52" t="n">
-        <v>40</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>7</v>
-      </c>
-      <c r="L52" t="n">
-        <v>40</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>50</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>60</v>
-      </c>
-      <c r="H53" t="n">
-        <v>60</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>60</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>40</v>
-      </c>
-      <c r="H54" t="n">
-        <v>40</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>7</v>
-      </c>
-      <c r="L54" t="n">
-        <v>40</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>32</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>40</v>
-      </c>
-      <c r="H55" t="n">
-        <v>40</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>7</v>
-      </c>
-      <c r="L55" t="n">
-        <v>40</v>
-      </c>
-      <c r="M55" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -3310,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3361,16 +2894,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3378,7 +2911,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3392,16 +2925,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3409,7 +2942,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3423,16 +2956,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3440,7 +2973,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3454,16 +2987,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3471,7 +3004,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3485,24 +3018,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3516,24 +3049,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3547,24 +3080,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3578,24 +3111,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3618,7 +3151,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3626,7 +3159,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3649,7 +3182,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3657,7 +3190,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3680,7 +3213,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3688,7 +3221,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3711,15 +3244,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3742,15 +3275,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3773,15 +3306,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3795,24 +3328,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3826,24 +3359,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3857,16 +3390,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3874,7 +3407,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3888,16 +3421,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3905,7 +3438,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3919,24 +3452,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3950,24 +3483,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3981,24 +3514,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4012,24 +3545,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4043,7 +3576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4052,15 +3585,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4070,11 +3603,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4083,11 +3616,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4105,7 +3638,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4114,15 +3647,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4136,24 +3669,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4163,11 +3696,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4176,15 +3709,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4203,517 +3736,21 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>36</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>36</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>31</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>36</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>35</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>60</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>75</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>50</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>39</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>50</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>43</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>43</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>35</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>43</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>43</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>80</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>100</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>50</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>46</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>50</v>
-      </c>
-      <c r="G45" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4798,14 +3835,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4817,19 +3854,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4856,28 +3893,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4889,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -4906,14 +3943,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4925,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4942,14 +3979,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4961,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4978,14 +4015,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4997,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -875,44 +875,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1088,15 +1088,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1227,29 +1227,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="17">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1445,15 +1445,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1496,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1598,18 +1598,18 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45292</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>985</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M24" t="n">
         <v>1000</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45293</v>
@@ -1725,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45296</v>
@@ -1884,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45292</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M29" t="n">
         <v>1498</v>
@@ -1945,11 +1945,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45292</v>
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M31" t="n">
         <v>1498</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2063,46 +2063,44 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>50</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2116,11 +2114,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2134,11 +2132,11 @@
         <v>50</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2155,7 +2153,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2169,11 +2167,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2187,11 +2185,11 @@
         <v>50</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2208,7 +2206,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2222,11 +2220,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2240,11 +2238,11 @@
         <v>50</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2261,7 +2259,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2275,44 +2273,46 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>985</v>
+        <v>50</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2326,29 +2326,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2357,15 +2357,13 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M37" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2379,15 +2377,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2397,11 +2395,11 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2410,8 +2408,10 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="n">
-        <v>985</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2430,39 +2430,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1000</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="40">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2481,11 +2481,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2493,24 +2493,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2546,24 +2546,24 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2587,11 +2587,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2599,24 +2599,24 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2640,11 +2640,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2652,24 +2652,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2705,36 +2705,36 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2797,11 +2797,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2809,27 +2809,27 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -3111,24 +3111,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3244,15 +3244,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3275,15 +3275,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3306,15 +3306,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3328,24 +3328,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3461,15 +3461,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3492,15 +3492,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3523,15 +3523,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3554,15 +3554,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3835,14 +3835,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3854,31 +3854,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3890,31 +3890,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3974,19 +3974,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3998,31 +3998,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -513,49 +513,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -824,44 +824,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -884,18 +884,18 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45292</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>985</v>
@@ -1283,16 +1283,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="18">
@@ -1334,16 +1334,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="19">
@@ -1385,16 +1385,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="20">
@@ -1436,16 +1436,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="21">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="22">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="23">
@@ -1589,16 +1589,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,27 +1606,27 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="24">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2326,11 +2326,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="38">
@@ -2377,11 +2377,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40">
@@ -2481,11 +2481,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2587,11 +2587,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2640,11 +2640,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="45">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2797,11 +2797,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
@@ -2894,24 +2894,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2925,16 +2925,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2956,16 +2956,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3018,24 +3018,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3049,24 +3049,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3120,15 +3120,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3359,16 +3359,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3390,16 +3390,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3421,16 +3421,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3452,16 +3452,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3483,16 +3483,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3514,16 +3514,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3545,16 +3545,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3612,11 +3612,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3643,11 +3643,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3705,11 +3705,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3736,11 +3736,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,18 +527,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -731,15 +731,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -833,15 +833,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="11">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="13">
@@ -1088,15 +1088,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="14">
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="15">
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="16">
@@ -1232,24 +1232,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1498</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -1278,29 +1278,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1498</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="20">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="21">
@@ -1496,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="22">
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="23">
@@ -1598,18 +1598,18 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45292</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="24">
@@ -1635,54 +1635,54 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1000</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1696,46 +1696,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>40</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1753,7 +1751,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1767,7 +1765,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1788,7 +1786,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1806,7 +1804,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1820,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1841,7 +1839,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1859,7 +1857,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1873,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1894,7 +1892,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1912,21 +1910,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1937,15 +1935,17 @@
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>60</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1498</v>
+        <v>40</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1988,17 +1988,15 @@
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>40</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2016,11 +2014,11 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -2030,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2043,8 +2041,10 @@
       <c r="L31" t="n">
         <v>40</v>
       </c>
-      <c r="M31" t="n">
-        <v>1498</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2063,39 +2063,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M32" t="n">
-        <v>1000</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="33">
@@ -2114,36 +2114,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>50</v>
       </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2167,36 +2167,36 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>50</v>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2220,36 +2220,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2273,36 +2273,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2326,44 +2326,46 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>985</v>
+        <v>20</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2377,36 +2379,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2430,44 +2432,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M39" t="n">
-        <v>985</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2481,15 +2483,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2499,28 +2501,26 @@
         <v>50</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>50</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M40" t="n">
+        <v>1034</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2546,24 +2546,24 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2587,11 +2587,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2599,24 +2599,24 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2640,11 +2640,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2652,24 +2652,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2693,44 +2693,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1498</v>
+        <v>41</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2744,29 +2746,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2775,15 +2777,13 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M45" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2797,15 +2797,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2815,11 +2815,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2828,8 +2828,428 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="n">
-        <v>1498</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>103</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>125</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>45</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>45</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>20</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>38</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>20</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>45</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>20</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>40</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2903,15 +3323,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2934,7 +3354,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2942,7 +3362,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2965,7 +3385,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2973,7 +3393,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2996,7 +3416,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3004,7 +3424,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3027,15 +3447,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3058,15 +3478,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3089,15 +3509,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3111,24 +3531,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3151,7 +3571,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3159,7 +3579,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3182,7 +3602,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3190,7 +3610,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3213,7 +3633,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3221,7 +3641,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3244,15 +3664,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3275,15 +3695,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3306,15 +3726,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3328,24 +3748,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3359,24 +3779,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3399,7 +3819,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3407,7 +3827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3430,7 +3850,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3438,7 +3858,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3461,7 +3881,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3469,7 +3889,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3492,15 +3912,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3523,15 +3943,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3554,15 +3974,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3576,24 +3996,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3603,7 +4023,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3612,19 +4032,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3634,7 +4054,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3643,19 +4063,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3665,7 +4085,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3674,19 +4094,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3696,7 +4116,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3705,19 +4125,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3727,7 +4147,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3736,21 +4156,517 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>27</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>59</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>98</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>59</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>98</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>59</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>84</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>59</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>98</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>59</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>60</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>75</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>103</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>net demand for normal</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F38" t="n">
+        <v>125</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>45</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>45</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>30</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>38</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>45</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>80</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>50</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>40</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -3830,7 +4746,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3842,7 +4758,7 @@
         <v>45292</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3854,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3871,14 +4787,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3890,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -3907,14 +4823,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3926,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3950,7 +4866,7 @@
         <v>45292</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3962,31 +4878,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3998,31 +4914,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4034,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module5/Module5Output_20240101.xlsx
@@ -1682,11 +1682,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1700,21 +1700,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1725,19 +1725,21 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1034</v>
+        <v>20</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1747,36 +1749,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E26" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" t="n">
         <v>20</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>40</v>
-      </c>
-      <c r="H26" t="n">
-        <v>40</v>
-      </c>
       <c r="I26" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1786,11 +1788,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1800,36 +1802,36 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1839,11 +1841,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1853,36 +1855,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1892,11 +1894,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1906,36 +1908,36 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1945,11 +1947,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1959,48 +1961,50 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>27</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>50</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>60</v>
-      </c>
       <c r="H30" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>60</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1495</v>
+        <v>20</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2010,41 +2014,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>40</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1034</v>
       </c>
     </row>
     <row r="32">
@@ -2053,7 +2055,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2063,39 +2065,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M32" t="n">
-        <v>1495</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33">
@@ -2114,36 +2116,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2167,36 +2169,36 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2220,36 +2222,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2273,36 +2275,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2312,7 +2314,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2326,46 +2328,44 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>20</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2379,36 +2379,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2432,44 +2432,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H39" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2483,44 +2483,46 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>50</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1034</v>
+        <v>20</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2534,11 +2536,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2546,24 +2548,24 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2573,7 +2575,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2587,11 +2589,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2599,24 +2601,24 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2626,7 +2628,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2640,11 +2642,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2652,24 +2654,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
         <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2679,7 +2681,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2693,46 +2695,44 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>41</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1495</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2746,29 +2746,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -2777,13 +2777,15 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="n">
-        <v>1000</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2797,15 +2799,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2815,11 +2817,11 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -2828,10 +2830,8 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M46" t="n">
+        <v>1495</v>
       </c>
     </row>
     <row r="47">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2850,39 +2850,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M47" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="48">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45293</v>
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45294</v>
@@ -2983,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3019,10 +3019,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45295</v>
@@ -3036,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3072,10 +3072,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45296</v>
@@ -3089,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3125,10 +3125,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45292</v>
@@ -3142,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M52" t="n">
         <v>1495</v>
@@ -3150,11 +3150,11 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3176,13 +3176,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3221,18 +3221,18 @@
         </is>
       </c>
       <c r="E54" t="n">
+        <v>21</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>40</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>50</v>
-      </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45292</v>
@@ -3246,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M54" t="n">
         <v>1495</v>
@@ -4787,14 +4787,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4806,31 +4806,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4842,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4866,7 +4866,7 @@
         <v>45292</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4878,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4895,14 +4895,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
